--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,138 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E8" s="3">
         <v>4700</v>
       </c>
       <c r="F8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4000</v>
       </c>
       <c r="L8" s="3">
         <v>4000</v>
       </c>
       <c r="M8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3700</v>
       </c>
       <c r="Q8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,11 +1107,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,75 +1150,83 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="3">
         <v>1500</v>
       </c>
       <c r="G17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F18" s="3">
         <v>3300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3000</v>
       </c>
       <c r="G18" s="3">
         <v>3100</v>
       </c>
       <c r="H18" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="I18" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J18" s="3">
         <v>3200</v>
@@ -1179,22 +1238,28 @@
         <v>3200</v>
       </c>
       <c r="M18" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="N18" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="O18" s="3">
         <v>3100</v>
       </c>
       <c r="P18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1600</v>
       </c>
       <c r="K20" s="3">
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="3">
         <v>1700</v>
       </c>
       <c r="F23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1700</v>
       </c>
       <c r="Q23" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,43 +1503,49 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>500</v>
+      </c>
+      <c r="S24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="3">
         <v>1400</v>
       </c>
       <c r="F26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1300</v>
       </c>
       <c r="Q26" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="3">
         <v>1400</v>
       </c>
       <c r="F27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1000</v>
       </c>
       <c r="O27" s="3">
         <v>1100</v>
       </c>
       <c r="P27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,27 +1770,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1600</v>
       </c>
       <c r="K32" s="3">
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E33" s="3">
         <v>1400</v>
       </c>
       <c r="F33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>1300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1000</v>
       </c>
       <c r="O33" s="3">
         <v>1100</v>
       </c>
       <c r="P33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="3">
         <v>1400</v>
       </c>
       <c r="F35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>1300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1000</v>
       </c>
       <c r="O35" s="3">
         <v>1100</v>
       </c>
       <c r="P35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+      <c r="E41" s="3">
+        <v>5900</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>5400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>4900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>4300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2592,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>7900</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>2000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>420700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>429500</v>
+      </c>
+      <c r="F54" s="3">
         <v>422200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>424300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>409600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>411300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>396300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>384900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>389300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>381100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>374300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>360700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>363000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>352100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3">
+        <v>300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>342400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>352300</v>
+      </c>
+      <c r="F66" s="3">
         <v>346300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>349900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>335100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>338200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>327600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>324500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>313800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>319600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>311400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>305200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>291500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>295000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>285000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3">
+        <v>56200</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>51800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>47000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>44600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>77100</v>
+      </c>
+      <c r="F76" s="3">
         <v>75900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>74300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>74500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>73100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>72400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>71800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>71100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>69700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>69700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>69100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>69200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>68000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E81" s="3">
         <v>1400</v>
       </c>
       <c r="F81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>1300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1000</v>
       </c>
       <c r="O81" s="3">
         <v>1100</v>
       </c>
       <c r="P81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,118 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="E8" s="3">
         <v>4700</v>
       </c>
       <c r="F8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4500</v>
       </c>
       <c r="I8" s="3">
         <v>4500</v>
       </c>
       <c r="J8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4000</v>
       </c>
       <c r="M8" s="3">
         <v>4000</v>
@@ -781,13 +785,13 @@
         <v>4000</v>
       </c>
       <c r="O8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3700</v>
       </c>
       <c r="R8" s="3">
         <v>3700</v>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,37 +1178,38 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
@@ -1191,10 +1218,10 @@
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
@@ -1203,10 +1230,13 @@
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,22 +1244,22 @@
         <v>3600</v>
       </c>
       <c r="E18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3200</v>
       </c>
       <c r="K18" s="3">
         <v>3200</v>
@@ -1244,22 +1274,25 @@
         <v>3200</v>
       </c>
       <c r="O18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P18" s="3">
         <v>3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3100</v>
       </c>
       <c r="R18" s="3">
         <v>3100</v>
       </c>
       <c r="S18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
         <v>-1800</v>
       </c>
       <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1500</v>
       </c>
       <c r="H20" s="3">
         <v>-1500</v>
       </c>
       <c r="I20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
       </c>
       <c r="K20" s="3">
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1600</v>
       </c>
       <c r="P20" s="3">
         <v>-1600</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,66 +1478,72 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1500</v>
       </c>
       <c r="I23" s="3">
         <v>1500</v>
       </c>
       <c r="J23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1800</v>
       </c>
       <c r="N23" s="3">
         <v>1800</v>
       </c>
       <c r="O23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1509,43 +1555,46 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>500</v>
       </c>
       <c r="N24" s="3">
         <v>500</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1500</v>
       </c>
       <c r="K26" s="3">
         <v>1500</v>
       </c>
       <c r="L26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="3">
         <v>1400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1300</v>
       </c>
       <c r="N26" s="3">
         <v>1300</v>
       </c>
       <c r="O26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1200</v>
       </c>
       <c r="I27" s="3">
         <v>1200</v>
       </c>
       <c r="J27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K27" s="3">
         <v>1500</v>
       </c>
       <c r="L27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M27" s="3">
         <v>1400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1300</v>
       </c>
       <c r="N27" s="3">
         <v>1300</v>
       </c>
       <c r="O27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,11 +1837,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1788,12 +1849,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
         <v>1800</v>
       </c>
       <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1500</v>
       </c>
       <c r="H32" s="3">
         <v>1500</v>
       </c>
       <c r="I32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1400</v>
       </c>
       <c r="K32" s="3">
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1600</v>
       </c>
       <c r="P32" s="3">
         <v>1600</v>
       </c>
       <c r="Q32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1200</v>
       </c>
       <c r="I33" s="3">
         <v>1200</v>
       </c>
       <c r="J33" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K33" s="3">
         <v>1500</v>
       </c>
       <c r="L33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1200</v>
       </c>
       <c r="I35" s="3">
         <v>1200</v>
       </c>
       <c r="J35" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K35" s="3">
         <v>1500</v>
       </c>
       <c r="L35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>5400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>4900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>4300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>2800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>7900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>3700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>2600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E54" s="3">
         <v>420700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>429500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>422200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>424300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>409600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>411300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>396300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>384900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>389300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>381100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>374300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>360700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>363000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>352100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>352900</v>
+      </c>
+      <c r="E66" s="3">
         <v>342400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>352300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>346300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>349900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>335100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>338200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>327600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>324500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>313800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>319600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>311400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>305200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>291500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>295000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>285000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>56200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>51800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>47000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>44600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E76" s="3">
         <v>78400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>73100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>69700</v>
       </c>
       <c r="N76" s="3">
         <v>69700</v>
       </c>
       <c r="O76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="P76" s="3">
         <v>69100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>68000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1200</v>
       </c>
       <c r="I81" s="3">
         <v>1200</v>
       </c>
       <c r="J81" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K81" s="3">
         <v>1500</v>
       </c>
       <c r="L81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,31 +759,31 @@
         <v>4400</v>
       </c>
       <c r="E8" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="F8" s="3">
         <v>4700</v>
       </c>
       <c r="G8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4500</v>
       </c>
       <c r="J8" s="3">
         <v>4500</v>
       </c>
       <c r="K8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4000</v>
       </c>
       <c r="N8" s="3">
         <v>4000</v>
@@ -788,13 +792,13 @@
         <v>4000</v>
       </c>
       <c r="P8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3700</v>
       </c>
       <c r="S8" s="3">
         <v>3700</v>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1162,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,31 +1215,31 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
@@ -1221,10 +1248,10 @@
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
@@ -1233,10 +1260,13 @@
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,22 +1277,22 @@
         <v>3600</v>
       </c>
       <c r="F18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G18" s="3">
         <v>3400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3200</v>
       </c>
       <c r="L18" s="3">
         <v>3200</v>
@@ -1277,22 +1307,25 @@
         <v>3200</v>
       </c>
       <c r="P18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3100</v>
       </c>
       <c r="S18" s="3">
         <v>3100</v>
       </c>
       <c r="T18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1800</v>
       </c>
       <c r="F20" s="3">
         <v>-1800</v>
       </c>
       <c r="G20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1500</v>
       </c>
       <c r="I20" s="3">
         <v>-1500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1400</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Q20" s="3">
         <v>-1600</v>
       </c>
       <c r="R20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,72 +1521,78 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1500</v>
       </c>
       <c r="J23" s="3">
         <v>1500</v>
       </c>
       <c r="K23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1800</v>
       </c>
       <c r="O23" s="3">
         <v>1800</v>
       </c>
       <c r="P23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1558,43 +1604,46 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>500</v>
       </c>
       <c r="O24" s="3">
         <v>500</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1500</v>
       </c>
       <c r="L26" s="3">
         <v>1500</v>
       </c>
       <c r="M26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N26" s="3">
         <v>1400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1300</v>
       </c>
       <c r="O26" s="3">
         <v>1300</v>
       </c>
       <c r="P26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1200</v>
       </c>
       <c r="J27" s="3">
         <v>1200</v>
       </c>
       <c r="K27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L27" s="3">
         <v>1500</v>
       </c>
       <c r="M27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N27" s="3">
         <v>1400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1300</v>
       </c>
       <c r="O27" s="3">
         <v>1300</v>
       </c>
       <c r="P27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,11 +1901,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1852,12 +1913,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>1800</v>
       </c>
       <c r="G32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1500</v>
       </c>
       <c r="I32" s="3">
         <v>1500</v>
       </c>
       <c r="J32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1400</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1600</v>
       </c>
       <c r="Q32" s="3">
         <v>1600</v>
       </c>
       <c r="R32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1200</v>
       </c>
       <c r="J33" s="3">
         <v>1200</v>
       </c>
       <c r="K33" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L33" s="3">
         <v>1500</v>
       </c>
       <c r="M33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1200</v>
       </c>
       <c r="J35" s="3">
         <v>1200</v>
       </c>
       <c r="K35" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L35" s="3">
         <v>1500</v>
       </c>
       <c r="M35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2325,53 +2412,56 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2381,53 +2471,56 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>5400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>4900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>4300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>2800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2717,53 +2825,56 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>7900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2773,53 +2884,56 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>2400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>2600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>436900</v>
+      </c>
+      <c r="E54" s="3">
         <v>431900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>420700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>429500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>422200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>424300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>409600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>411300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>396300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>384900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>389300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>381100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>374300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>360700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>363000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>352100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3153,53 +3284,56 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E66" s="3">
         <v>352900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>342400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>352300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>349900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>335100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>338200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>324500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>313800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>319600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>311400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>305200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>291500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>295000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>285000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3959,53 +4133,56 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>56200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>51800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>47000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>44600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E76" s="3">
         <v>78900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>73100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>69700</v>
       </c>
       <c r="O76" s="3">
         <v>69700</v>
       </c>
       <c r="P76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>69100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>68000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1200</v>
       </c>
       <c r="J81" s="3">
         <v>1200</v>
       </c>
       <c r="K81" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L81" s="3">
         <v>1500</v>
       </c>
       <c r="M81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,31 +765,31 @@
         <v>4400</v>
       </c>
       <c r="F8" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="G8" s="3">
         <v>4700</v>
       </c>
       <c r="H8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4500</v>
       </c>
       <c r="K8" s="3">
         <v>4500</v>
       </c>
       <c r="L8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4000</v>
       </c>
       <c r="O8" s="3">
         <v>4000</v>
@@ -795,13 +798,13 @@
         <v>4000</v>
       </c>
       <c r="Q8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3700</v>
       </c>
       <c r="T8" s="3">
         <v>3700</v>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,8 +1187,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,43 +1231,44 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
@@ -1251,10 +1277,10 @@
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
@@ -1263,15 +1289,18 @@
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="3">
         <v>3600</v>
@@ -1280,22 +1309,22 @@
         <v>3600</v>
       </c>
       <c r="G18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3200</v>
       </c>
       <c r="M18" s="3">
         <v>3200</v>
@@ -1310,22 +1339,25 @@
         <v>3200</v>
       </c>
       <c r="Q18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3100</v>
       </c>
       <c r="T18" s="3">
         <v>3100</v>
       </c>
       <c r="U18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1800</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
       </c>
       <c r="H20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1500</v>
       </c>
       <c r="J20" s="3">
         <v>-1500</v>
       </c>
       <c r="K20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1400</v>
       </c>
       <c r="M20" s="3">
         <v>-1400</v>
       </c>
       <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1600</v>
       </c>
       <c r="R20" s="3">
         <v>-1600</v>
       </c>
       <c r="S20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1500</v>
       </c>
       <c r="K23" s="3">
         <v>1500</v>
       </c>
       <c r="L23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1800</v>
       </c>
       <c r="P23" s="3">
         <v>1800</v>
       </c>
       <c r="Q23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,10 +1637,10 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1607,43 +1652,46 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>500</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,67 +1749,73 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1500</v>
       </c>
       <c r="M26" s="3">
         <v>1500</v>
       </c>
       <c r="N26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O26" s="3">
         <v>1400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1300</v>
       </c>
       <c r="P26" s="3">
         <v>1300</v>
       </c>
       <c r="Q26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,58 +1823,61 @@
         <v>1500</v>
       </c>
       <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1200</v>
       </c>
       <c r="K27" s="3">
         <v>1200</v>
       </c>
       <c r="L27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M27" s="3">
         <v>1500</v>
       </c>
       <c r="N27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O27" s="3">
         <v>1400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1300</v>
       </c>
       <c r="P27" s="3">
         <v>1300</v>
       </c>
       <c r="Q27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,11 +1964,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1916,12 +1976,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,67 +2121,73 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1800</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
       </c>
       <c r="H32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1500</v>
       </c>
       <c r="J32" s="3">
         <v>1500</v>
       </c>
       <c r="K32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L32" s="3">
         <v>1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1400</v>
       </c>
       <c r="M32" s="3">
         <v>1400</v>
       </c>
       <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1600</v>
       </c>
       <c r="R32" s="3">
         <v>1600</v>
       </c>
       <c r="S32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,58 +2195,61 @@
         <v>1500</v>
       </c>
       <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1200</v>
       </c>
       <c r="K33" s="3">
         <v>1200</v>
       </c>
       <c r="L33" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M33" s="3">
         <v>1500</v>
       </c>
       <c r="N33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,122 +2319,128 @@
         <v>1500</v>
       </c>
       <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1200</v>
       </c>
       <c r="K35" s="3">
         <v>1200</v>
       </c>
       <c r="L35" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M35" s="3">
         <v>1500</v>
       </c>
       <c r="N35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,13 +2486,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>6100</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
@@ -2415,58 +2501,61 @@
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>9300</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -2474,53 +2563,56 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>5400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>4900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>4300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>2800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,13 +2918,16 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>10100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2828,58 +2935,61 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>7900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>1900</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -2887,53 +2997,56 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>2400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>2600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>450300</v>
+      </c>
+      <c r="E54" s="3">
         <v>436900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>431900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>420700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>429500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>422200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>424300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>409600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>411300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>396300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>384900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>381100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>374300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>360700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>363000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>352100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,13 +3402,14 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -3287,53 +3417,56 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>368800</v>
+      </c>
+      <c r="E66" s="3">
         <v>357000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>352900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>342400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>352300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>349900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>335100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>338200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>327600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>324500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>313800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>319600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>311400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>305200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>291500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>295000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>285000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,13 +4292,16 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>61600</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -4136,53 +4309,56 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>56200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>51800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>47000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>44600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E76" s="3">
         <v>79900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>78900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>78400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>77100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>75900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>69700</v>
       </c>
       <c r="P76" s="3">
         <v>69700</v>
       </c>
       <c r="Q76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="R76" s="3">
         <v>69100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>68000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,58 +4743,61 @@
         <v>1500</v>
       </c>
       <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1200</v>
       </c>
       <c r="K81" s="3">
         <v>1200</v>
       </c>
       <c r="L81" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M81" s="3">
         <v>1500</v>
       </c>
       <c r="N81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="E8" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F8" s="3">
         <v>4400</v>
       </c>
       <c r="G8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I8" s="3">
         <v>4700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4800</v>
       </c>
       <c r="J8" s="3">
         <v>4700</v>
       </c>
       <c r="K8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4000</v>
       </c>
       <c r="Q8" s="3">
         <v>4000</v>
       </c>
       <c r="R8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3700</v>
       </c>
       <c r="V8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,11 +1236,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,105 +1284,113 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1600</v>
       </c>
       <c r="K17" s="3">
         <v>1500</v>
       </c>
       <c r="L17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
+        <v>800</v>
+      </c>
+      <c r="T17" s="3">
         <v>700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
       <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F18" s="3">
         <v>4000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3600</v>
       </c>
       <c r="G18" s="3">
         <v>3600</v>
       </c>
       <c r="H18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3000</v>
       </c>
       <c r="L18" s="3">
         <v>3100</v>
       </c>
       <c r="M18" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="N18" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="O18" s="3">
         <v>3200</v>
@@ -1342,22 +1402,28 @@
         <v>3200</v>
       </c>
       <c r="R18" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="S18" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="T18" s="3">
         <v>3100</v>
       </c>
       <c r="U18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V18" s="3">
         <v>3100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1446,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1000</v>
       </c>
       <c r="G20" s="3">
         <v>-1800</v>
       </c>
       <c r="H20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1600</v>
       </c>
       <c r="P20" s="3">
         <v>-1400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,87 +1646,99 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>1900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2700</v>
       </c>
       <c r="G23" s="3">
         <v>1800</v>
       </c>
       <c r="H23" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="I23" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J23" s="3">
         <v>1700</v>
       </c>
       <c r="K23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1700</v>
       </c>
       <c r="V23" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1655,43 +1747,49 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>500</v>
       </c>
       <c r="V24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2200</v>
       </c>
       <c r="G26" s="3">
         <v>1500</v>
       </c>
       <c r="H26" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="I26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J26" s="3">
         <v>1400</v>
       </c>
       <c r="K26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1300</v>
       </c>
       <c r="V26" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>1500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2200</v>
       </c>
       <c r="G27" s="3">
         <v>1500</v>
       </c>
       <c r="H27" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="I27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J27" s="3">
         <v>1400</v>
       </c>
       <c r="K27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1000</v>
       </c>
       <c r="T27" s="3">
         <v>1100</v>
       </c>
       <c r="U27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,56 +2054,62 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000</v>
       </c>
       <c r="G32" s="3">
         <v>1800</v>
       </c>
       <c r="H32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1600</v>
       </c>
       <c r="P32" s="3">
         <v>1400</v>
       </c>
       <c r="Q32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>1500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2200</v>
       </c>
       <c r="G33" s="3">
         <v>1500</v>
       </c>
       <c r="H33" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="I33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J33" s="3">
         <v>1400</v>
       </c>
       <c r="K33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>1300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1000</v>
       </c>
       <c r="T33" s="3">
         <v>1100</v>
       </c>
       <c r="U33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>1500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2200</v>
       </c>
       <c r="G35" s="3">
         <v>1500</v>
       </c>
       <c r="H35" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="I35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J35" s="3">
         <v>1400</v>
       </c>
       <c r="K35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>1300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1000</v>
       </c>
       <c r="T35" s="3">
         <v>1100</v>
       </c>
       <c r="U35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2659,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>4900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>9300</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>5400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>4900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>4300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>2800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3131,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>10100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>7900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>3500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>2400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>2600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>491300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>473400</v>
+      </c>
+      <c r="F54" s="3">
         <v>450300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>436900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>431900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>420700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>429500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>422200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>424300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>409600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>411300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>396300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>384900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>389300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>381100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>374300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>360700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>363000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>352100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3795,14 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3863,14 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>407400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>390100</v>
+      </c>
+      <c r="F66" s="3">
         <v>368800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>357000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>352900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>342400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>352300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>346300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>349900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>335100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>338200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>327600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>324500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>313800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>319600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>311400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>305200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>291500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>295000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>285000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>61600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>56200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>51800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>47000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>44600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>83200</v>
+      </c>
+      <c r="F76" s="3">
         <v>81500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>79900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>78900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>78400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>77100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>75900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>74300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>74500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>73100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>72400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>71800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>71100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>69700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>69700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>69100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>69200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>68000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>1500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>2200</v>
       </c>
       <c r="G81" s="3">
         <v>1500</v>
       </c>
       <c r="H81" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="I81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J81" s="3">
         <v>1400</v>
       </c>
       <c r="K81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>1300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1000</v>
       </c>
       <c r="T81" s="3">
         <v>1100</v>
       </c>
       <c r="U81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4400</v>
       </c>
       <c r="G8" s="3">
         <v>4400</v>
@@ -782,31 +786,31 @@
         <v>4400</v>
       </c>
       <c r="I8" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="J8" s="3">
         <v>4700</v>
       </c>
       <c r="K8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4500</v>
       </c>
       <c r="N8" s="3">
         <v>4500</v>
       </c>
       <c r="O8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4000</v>
       </c>
       <c r="R8" s="3">
         <v>4000</v>
@@ -815,13 +819,13 @@
         <v>4000</v>
       </c>
       <c r="T8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3700</v>
       </c>
       <c r="W8" s="3">
         <v>3700</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,8 +1265,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,52 +1312,53 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>800</v>
       </c>
       <c r="R17" s="3">
         <v>800</v>
@@ -1340,10 +1367,10 @@
         <v>800</v>
       </c>
       <c r="T17" s="3">
+        <v>800</v>
+      </c>
+      <c r="U17" s="3">
         <v>700</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
@@ -1352,24 +1379,27 @@
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3600</v>
       </c>
       <c r="H18" s="3">
         <v>3600</v>
@@ -1378,22 +1408,22 @@
         <v>3600</v>
       </c>
       <c r="J18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3200</v>
       </c>
       <c r="P18" s="3">
         <v>3200</v>
@@ -1408,22 +1438,25 @@
         <v>3200</v>
       </c>
       <c r="T18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U18" s="3">
         <v>3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3100</v>
       </c>
       <c r="W18" s="3">
         <v>3100</v>
       </c>
       <c r="X18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
         <v>-1600</v>
       </c>
       <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1800</v>
       </c>
       <c r="J20" s="3">
         <v>-1800</v>
       </c>
       <c r="K20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1500</v>
       </c>
       <c r="M20" s="3">
         <v>-1500</v>
       </c>
       <c r="N20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1400</v>
       </c>
       <c r="P20" s="3">
         <v>-1400</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1600</v>
       </c>
       <c r="U20" s="3">
         <v>-1600</v>
       </c>
       <c r="V20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1500</v>
       </c>
       <c r="N23" s="3">
         <v>1500</v>
       </c>
       <c r="O23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1800</v>
       </c>
       <c r="S23" s="3">
         <v>1800</v>
       </c>
       <c r="T23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,19 +1775,19 @@
         <v>400</v>
       </c>
       <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
@@ -1753,43 +1799,46 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>500</v>
       </c>
       <c r="S24" s="3">
         <v>500</v>
       </c>
       <c r="T24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="3">
         <v>2100</v>
       </c>
       <c r="F26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1500</v>
       </c>
       <c r="P26" s="3">
         <v>1500</v>
       </c>
       <c r="Q26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R26" s="3">
         <v>1400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1300</v>
       </c>
       <c r="S26" s="3">
         <v>1300</v>
       </c>
       <c r="T26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U26" s="3">
         <v>1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="3">
         <v>2100</v>
       </c>
       <c r="F27" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G27" s="3">
         <v>1500</v>
       </c>
       <c r="H27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1200</v>
       </c>
       <c r="N27" s="3">
         <v>1200</v>
       </c>
       <c r="O27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="P27" s="3">
         <v>1500</v>
       </c>
       <c r="Q27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R27" s="3">
         <v>1400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1300</v>
       </c>
       <c r="S27" s="3">
         <v>1300</v>
       </c>
       <c r="T27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2095,11 +2156,11 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2107,12 +2168,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
         <v>1600</v>
       </c>
       <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1800</v>
       </c>
       <c r="J32" s="3">
         <v>1800</v>
       </c>
       <c r="K32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L32" s="3">
         <v>1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1500</v>
       </c>
       <c r="M32" s="3">
         <v>1500</v>
       </c>
       <c r="N32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O32" s="3">
         <v>1600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1400</v>
       </c>
       <c r="P32" s="3">
         <v>1400</v>
       </c>
       <c r="Q32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1600</v>
       </c>
       <c r="U32" s="3">
         <v>1600</v>
       </c>
       <c r="V32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="3">
         <v>2100</v>
       </c>
       <c r="F33" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G33" s="3">
         <v>1500</v>
       </c>
       <c r="H33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1200</v>
       </c>
       <c r="N33" s="3">
         <v>1200</v>
       </c>
       <c r="O33" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="P33" s="3">
         <v>1500</v>
       </c>
       <c r="Q33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="3">
         <v>2100</v>
       </c>
       <c r="F35" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G35" s="3">
         <v>1500</v>
       </c>
       <c r="H35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1200</v>
       </c>
       <c r="N35" s="3">
         <v>1200</v>
       </c>
       <c r="O35" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="P35" s="3">
         <v>1500</v>
       </c>
       <c r="Q35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2672,65 +2759,68 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2740,65 +2830,68 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>9300</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>5400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>4900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>4300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>2800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3148,65 +3256,68 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>7900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>3500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3216,65 +3327,68 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>2400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>2600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>520300</v>
+      </c>
+      <c r="E54" s="3">
         <v>491300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>473400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>450300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>436900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>431900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>420700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>429500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>422200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>424300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>409600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>411300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>396300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>384900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>389300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>381100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>374300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>360700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>363000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>352100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3676,65 +3807,68 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>434400</v>
+      </c>
+      <c r="E66" s="3">
         <v>407400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>390100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>368800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>357000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>352900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>342400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>352300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>346300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>349900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>335100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>338200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>327600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>324500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>313800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>319600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>311400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>305200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>291500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>295000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>285000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4814,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4654,65 +4828,68 @@
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>61600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>56200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>51800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>47000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>44600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E76" s="3">
         <v>83900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>83200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>81500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>69700</v>
       </c>
       <c r="S76" s="3">
         <v>69700</v>
       </c>
       <c r="T76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="U76" s="3">
         <v>69100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>69200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>68000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="3">
         <v>2100</v>
       </c>
       <c r="F81" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G81" s="3">
         <v>1500</v>
       </c>
       <c r="H81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1200</v>
       </c>
       <c r="N81" s="3">
         <v>1200</v>
       </c>
       <c r="O81" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="P81" s="3">
         <v>1500</v>
       </c>
       <c r="Q81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4400</v>
       </c>
       <c r="I8" s="3">
         <v>4400</v>
       </c>
       <c r="J8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L8" s="3">
         <v>4700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4800</v>
       </c>
       <c r="M8" s="3">
         <v>4700</v>
       </c>
       <c r="N8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4000</v>
       </c>
       <c r="T8" s="3">
         <v>4000</v>
       </c>
       <c r="U8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3600</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="X8" s="3">
-        <v>3700</v>
       </c>
       <c r="Y8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1268,11 +1313,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,123 +1364,131 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1600</v>
       </c>
       <c r="N17" s="3">
         <v>1500</v>
       </c>
       <c r="O17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
       </c>
       <c r="U17" s="3">
+        <v>800</v>
+      </c>
+      <c r="V17" s="3">
+        <v>800</v>
+      </c>
+      <c r="W17" s="3">
         <v>700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E18" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="3">
         <v>4200</v>
       </c>
       <c r="G18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I18" s="3">
         <v>4000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3600</v>
       </c>
       <c r="J18" s="3">
         <v>3600</v>
       </c>
       <c r="K18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3000</v>
       </c>
       <c r="O18" s="3">
         <v>3100</v>
       </c>
       <c r="P18" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q18" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="R18" s="3">
         <v>3200</v>
@@ -1441,22 +1500,28 @@
         <v>3200</v>
       </c>
       <c r="U18" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="V18" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="W18" s="3">
         <v>3100</v>
       </c>
       <c r="X18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1000</v>
       </c>
       <c r="J20" s="3">
         <v>-1800</v>
       </c>
       <c r="K20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1600</v>
       </c>
       <c r="S20" s="3">
         <v>-1400</v>
       </c>
       <c r="T20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1774,14 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1704,96 +1789,102 @@
         <v>2400</v>
       </c>
       <c r="E23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2700</v>
       </c>
       <c r="J23" s="3">
         <v>1800</v>
       </c>
       <c r="K23" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="L23" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M23" s="3">
         <v>1700</v>
       </c>
       <c r="N23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1700</v>
       </c>
       <c r="Y23" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
@@ -1802,43 +1893,49 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
-      </c>
-      <c r="W24" s="3">
-        <v>400</v>
-      </c>
-      <c r="X24" s="3">
-        <v>500</v>
       </c>
       <c r="Y24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2200</v>
       </c>
       <c r="J26" s="3">
         <v>1500</v>
       </c>
       <c r="K26" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M26" s="3">
         <v>1400</v>
       </c>
       <c r="N26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X26" s="3">
-        <v>1300</v>
       </c>
       <c r="Y26" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2200</v>
       </c>
       <c r="J27" s="3">
         <v>1500</v>
       </c>
       <c r="K27" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M27" s="3">
         <v>1400</v>
       </c>
       <c r="N27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1000</v>
       </c>
       <c r="W27" s="3">
         <v>1100</v>
       </c>
       <c r="X27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2150,36 +2271,36 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1000</v>
       </c>
       <c r="J32" s="3">
         <v>1800</v>
       </c>
       <c r="K32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1600</v>
       </c>
       <c r="S32" s="3">
         <v>1400</v>
       </c>
       <c r="T32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2200</v>
       </c>
       <c r="J33" s="3">
         <v>1500</v>
       </c>
       <c r="K33" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M33" s="3">
         <v>1400</v>
       </c>
       <c r="N33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>1300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1000</v>
       </c>
       <c r="W33" s="3">
         <v>1100</v>
       </c>
       <c r="X33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2200</v>
       </c>
       <c r="J35" s="3">
         <v>1500</v>
       </c>
       <c r="K35" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M35" s="3">
         <v>1400</v>
       </c>
       <c r="N35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>1300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>1000</v>
       </c>
       <c r="W35" s="3">
         <v>1100</v>
       </c>
       <c r="X35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2919,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+      <c r="E41" s="3">
+        <v>5200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>6100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>4900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="3">
+        <v>29200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>9300</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>5400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>4300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>2800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3300,14 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3454,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3">
+        <v>9800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>10100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>7900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>3500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>3500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>1800</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>2400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>590200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>532700</v>
+      </c>
+      <c r="F54" s="3">
         <v>520300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>491300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>473400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>450300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>436900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>431900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>420700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>429500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>422200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>424300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>409600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>411300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>396300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>384900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>389300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>381100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>374300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>360700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>363000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>352100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3">
+        <v>100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4205,14 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4009,8 +4282,14 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>501400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>445500</v>
+      </c>
+      <c r="F66" s="3">
         <v>434400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>407400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>390100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>368800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>357000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>352900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>342400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>352300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>346300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>349900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>335100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>338200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>327600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>324500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>313800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>319600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>311400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>305200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>291500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>295000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>285000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
+      <c r="E72" s="3">
+        <v>67400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>61600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>56200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>51800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>47000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>44600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>87200</v>
+      </c>
+      <c r="F76" s="3">
         <v>86000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>83900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>83200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>81500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>79900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>78900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>78400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>77100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>75900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>74300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>74500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>73100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>72400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>71800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>71100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>69700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>69700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>69100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>69200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>68000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2200</v>
       </c>
       <c r="J81" s="3">
         <v>1500</v>
       </c>
       <c r="K81" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M81" s="3">
         <v>1400</v>
       </c>
       <c r="N81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>1300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>1000</v>
       </c>
       <c r="W81" s="3">
         <v>1100</v>
       </c>
       <c r="X81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4400</v>
       </c>
       <c r="K8" s="3">
         <v>4400</v>
       </c>
       <c r="L8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N8" s="3">
         <v>4700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4800</v>
       </c>
       <c r="O8" s="3">
         <v>4700</v>
       </c>
       <c r="P8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4200</v>
-      </c>
-      <c r="T8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4000</v>
       </c>
       <c r="V8" s="3">
         <v>4000</v>
       </c>
       <c r="W8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3700</v>
       </c>
       <c r="AA8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +940,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1319,11 +1365,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,135 +1418,143 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1600</v>
       </c>
       <c r="P17" s="3">
         <v>1500</v>
       </c>
       <c r="Q17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>800</v>
       </c>
       <c r="V17" s="3">
         <v>800</v>
       </c>
       <c r="W17" s="3">
+        <v>800</v>
+      </c>
+      <c r="X17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y17" s="3">
         <v>700</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>600</v>
       </c>
       <c r="Z17" s="3">
         <v>600</v>
       </c>
       <c r="AA17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4100</v>
       </c>
       <c r="H18" s="3">
         <v>4200</v>
       </c>
       <c r="I18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3600</v>
       </c>
       <c r="L18" s="3">
         <v>3600</v>
       </c>
       <c r="M18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3000</v>
       </c>
       <c r="Q18" s="3">
         <v>3100</v>
       </c>
       <c r="R18" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="S18" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="T18" s="3">
         <v>3200</v>
@@ -1506,22 +1566,28 @@
         <v>3200</v>
       </c>
       <c r="W18" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="X18" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Y18" s="3">
         <v>3100</v>
       </c>
       <c r="Z18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,85 +1615,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1000</v>
       </c>
       <c r="L20" s="3">
         <v>-1800</v>
       </c>
       <c r="M20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1600</v>
       </c>
       <c r="U20" s="3">
         <v>-1400</v>
       </c>
       <c r="V20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1777,14 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,117 +1860,129 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="E23" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F23" s="3">
         <v>2400</v>
       </c>
       <c r="G23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2700</v>
       </c>
       <c r="L23" s="3">
         <v>1800</v>
       </c>
       <c r="M23" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="N23" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="O23" s="3">
         <v>1700</v>
       </c>
       <c r="P23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1700</v>
       </c>
       <c r="AA23" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
@@ -1899,43 +1991,49 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>500</v>
       </c>
       <c r="AA24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2200</v>
       </c>
       <c r="L26" s="3">
         <v>1500</v>
       </c>
       <c r="M26" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O26" s="3">
         <v>1400</v>
       </c>
       <c r="P26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>1300</v>
       </c>
       <c r="AA26" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2200</v>
       </c>
       <c r="L27" s="3">
         <v>1500</v>
       </c>
       <c r="M27" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O27" s="3">
         <v>1400</v>
       </c>
       <c r="P27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1000</v>
       </c>
       <c r="Y27" s="3">
         <v>1100</v>
       </c>
       <c r="Z27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2277,36 +2399,36 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2607,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
       </c>
       <c r="L32" s="3">
         <v>1800</v>
       </c>
       <c r="M32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1600</v>
       </c>
       <c r="U32" s="3">
         <v>1400</v>
       </c>
       <c r="V32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2200</v>
       </c>
       <c r="L33" s="3">
         <v>1500</v>
       </c>
       <c r="M33" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O33" s="3">
         <v>1400</v>
       </c>
       <c r="P33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>1300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X33" s="3">
-        <v>1000</v>
       </c>
       <c r="Y33" s="3">
         <v>1100</v>
       </c>
       <c r="Z33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2200</v>
       </c>
       <c r="L35" s="3">
         <v>1500</v>
       </c>
       <c r="M35" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O35" s="3">
         <v>1400</v>
       </c>
       <c r="P35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>1300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X35" s="3">
-        <v>1000</v>
       </c>
       <c r="Y35" s="3">
         <v>1100</v>
       </c>
       <c r="Z35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3093,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>6100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>4900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>29200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>9300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>5400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>4900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>4300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>2800</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3504,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3670,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>10100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>7900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>3700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>3500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>3500</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>2200</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>2400</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>601700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>585700</v>
+      </c>
+      <c r="F54" s="3">
         <v>590200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>532700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>520300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>491300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>473400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>450300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>436900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>431900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>420700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>429500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>422200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>424300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>409600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>411300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>400000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>396300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>384900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>389300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>381100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>374300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>360700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>363000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>352100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4317,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4479,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4562,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4645,14 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>497700</v>
+      </c>
+      <c r="F66" s="3">
         <v>501400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>445500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>434400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>407400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>390100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>368800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>357000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>352900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>342400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>352300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>346300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>349900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>335100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>338200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>327600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>324500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>313800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>319600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>311400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>305200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>291500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>295000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>285000</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>67400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>61600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>56200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>51800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>47000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>44600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>88000</v>
+      </c>
+      <c r="F76" s="3">
         <v>88800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>87200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>86000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>83900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>83200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>81500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>79900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>78900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>78400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>77100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>75900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>74300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>74500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>73100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>72400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>71800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>71100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>69700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>69700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>69100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>69200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>68000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2200</v>
       </c>
       <c r="L81" s="3">
         <v>1500</v>
       </c>
       <c r="M81" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O81" s="3">
         <v>1400</v>
       </c>
       <c r="P81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>1300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X81" s="3">
-        <v>1000</v>
       </c>
       <c r="Y81" s="3">
         <v>1100</v>
       </c>
       <c r="Z81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6704,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6787,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7067,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7679,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,152 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4400</v>
       </c>
       <c r="L8" s="3">
         <v>4400</v>
@@ -816,31 +819,31 @@
         <v>4400</v>
       </c>
       <c r="N8" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="O8" s="3">
         <v>4700</v>
       </c>
       <c r="P8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4500</v>
       </c>
       <c r="S8" s="3">
         <v>4500</v>
       </c>
       <c r="T8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U8" s="3">
         <v>4400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4000</v>
       </c>
       <c r="W8" s="3">
         <v>4000</v>
@@ -849,13 +852,13 @@
         <v>4000</v>
       </c>
       <c r="Y8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3600</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3700</v>
       </c>
       <c r="AB8" s="3">
         <v>3700</v>
@@ -863,8 +866,11 @@
       <c r="AC8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1371,8 +1393,8 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>5</v>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,67 +1445,68 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
-      </c>
-      <c r="V17" s="3">
-        <v>800</v>
       </c>
       <c r="W17" s="3">
         <v>800</v>
@@ -1489,10 +1515,10 @@
         <v>800</v>
       </c>
       <c r="Y17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z17" s="3">
         <v>700</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>600</v>
       </c>
       <c r="AA17" s="3">
         <v>600</v>
@@ -1501,39 +1527,42 @@
         <v>600</v>
       </c>
       <c r="AC17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>5200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3600</v>
       </c>
       <c r="M18" s="3">
         <v>3600</v>
@@ -1542,22 +1571,22 @@
         <v>3600</v>
       </c>
       <c r="O18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P18" s="3">
         <v>3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3200</v>
       </c>
       <c r="U18" s="3">
         <v>3200</v>
@@ -1572,22 +1601,25 @@
         <v>3200</v>
       </c>
       <c r="Y18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>3100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>3100</v>
       </c>
       <c r="AB18" s="3">
         <v>3100</v>
       </c>
       <c r="AC18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1629,79 +1662,82 @@
         <v>-1900</v>
       </c>
       <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1600</v>
       </c>
       <c r="J20" s="3">
         <v>-1600</v>
       </c>
       <c r="K20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1800</v>
       </c>
       <c r="O20" s="3">
         <v>-1800</v>
       </c>
       <c r="P20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1500</v>
       </c>
       <c r="R20" s="3">
         <v>-1500</v>
       </c>
       <c r="S20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1400</v>
       </c>
       <c r="U20" s="3">
         <v>-1400</v>
       </c>
       <c r="V20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Z20" s="3">
         <v>-1600</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1819,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,126 +1905,132 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1500</v>
       </c>
       <c r="S23" s="3">
         <v>1500</v>
       </c>
       <c r="T23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1800</v>
       </c>
       <c r="X23" s="3">
         <v>1800</v>
       </c>
       <c r="Y23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>400</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1997,43 +2042,46 @@
         <v>300</v>
       </c>
       <c r="R24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>500</v>
       </c>
       <c r="X24" s="3">
         <v>500</v>
       </c>
       <c r="Y24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Z24" s="3">
         <v>300</v>
       </c>
       <c r="AA24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB24" s="3">
         <v>400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2100</v>
       </c>
       <c r="J26" s="3">
         <v>2100</v>
       </c>
       <c r="K26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1500</v>
       </c>
       <c r="U26" s="3">
         <v>1500</v>
       </c>
       <c r="V26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W26" s="3">
         <v>1400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1300</v>
       </c>
       <c r="X26" s="3">
         <v>1300</v>
       </c>
       <c r="Y26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2100</v>
       </c>
       <c r="J27" s="3">
         <v>2100</v>
       </c>
       <c r="K27" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L27" s="3">
         <v>1500</v>
       </c>
       <c r="M27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1200</v>
       </c>
       <c r="S27" s="3">
         <v>1200</v>
       </c>
       <c r="T27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="U27" s="3">
         <v>1500</v>
       </c>
       <c r="V27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W27" s="3">
         <v>1400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1300</v>
       </c>
       <c r="X27" s="3">
         <v>1300</v>
       </c>
       <c r="Y27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2405,8 +2465,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2414,11 +2474,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2426,12 +2486,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1300</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2625,162 +2694,168 @@
         <v>1900</v>
       </c>
       <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1600</v>
       </c>
       <c r="J32" s="3">
         <v>1600</v>
       </c>
       <c r="K32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1800</v>
       </c>
       <c r="O32" s="3">
         <v>1800</v>
       </c>
       <c r="P32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1500</v>
       </c>
       <c r="R32" s="3">
         <v>1500</v>
       </c>
       <c r="S32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T32" s="3">
         <v>1600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1400</v>
       </c>
       <c r="U32" s="3">
         <v>1400</v>
       </c>
       <c r="V32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>1600</v>
       </c>
       <c r="Z32" s="3">
         <v>1600</v>
       </c>
       <c r="AA32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2100</v>
       </c>
       <c r="J33" s="3">
         <v>2100</v>
       </c>
       <c r="K33" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L33" s="3">
         <v>1500</v>
       </c>
       <c r="M33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1200</v>
       </c>
       <c r="S33" s="3">
         <v>1200</v>
       </c>
       <c r="T33" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="U33" s="3">
         <v>1500</v>
       </c>
       <c r="V33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W33" s="3">
         <v>1400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2100</v>
       </c>
       <c r="J35" s="3">
         <v>2100</v>
       </c>
       <c r="K35" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L35" s="3">
         <v>1500</v>
       </c>
       <c r="M35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1200</v>
       </c>
       <c r="S35" s="3">
         <v>1200</v>
       </c>
       <c r="T35" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="U35" s="3">
         <v>1500</v>
       </c>
       <c r="V35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W35" s="3">
         <v>1400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,13 +3180,14 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
+      <c r="D41" s="3">
+        <v>6300</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>5</v>
@@ -3109,82 +3195,85 @@
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>6100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>5700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>4900</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>24800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -3192,77 +3281,80 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>29200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>9300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>5400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>4900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>4300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>2800</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,13 +3780,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>9500</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -3690,82 +3797,85 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>9800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>10100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>3700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>3500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>3500</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
+      <c r="D49" s="3">
+        <v>1700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>5</v>
@@ -3773,77 +3883,80 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>2000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>2200</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>2400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>2600</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>596300</v>
+      </c>
+      <c r="E54" s="3">
         <v>601700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>585700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>590200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>532700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>520300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>491300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>473400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>450300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>436900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>431900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>420700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>429500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>422200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>424300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>409600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>411300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>396300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>384900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>389300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>381100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>374300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>360700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>363000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>352100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,13 +4448,14 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>100</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -4333,77 +4463,80 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4568,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4790,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>505500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>497700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>501400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>445500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>434400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>407400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>390100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>368800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>357000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>352900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>342400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>352300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>346300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>349900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>335100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>338200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>327600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>324500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>313800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>319600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>311400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>305200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>291500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>295000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>285000</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,13 +5682,16 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>73300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
@@ -5526,77 +5699,80 @@
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>67400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>61600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>56200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>51800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>47000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>44600</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E76" s="3">
         <v>89300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>87200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>81500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>74300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>73100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>72400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>71800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>71100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>69700</v>
       </c>
       <c r="X76" s="3">
         <v>69700</v>
       </c>
       <c r="Y76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="Z76" s="3">
         <v>69100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>69200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>68000</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2100</v>
       </c>
       <c r="J81" s="3">
         <v>2100</v>
       </c>
       <c r="K81" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L81" s="3">
         <v>1500</v>
       </c>
       <c r="M81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1200</v>
       </c>
       <c r="S81" s="3">
         <v>1200</v>
       </c>
       <c r="T81" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="U81" s="3">
         <v>1500</v>
       </c>
       <c r="V81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W81" s="3">
         <v>1400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,159 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4400</v>
       </c>
       <c r="M8" s="3">
         <v>4400</v>
@@ -822,31 +826,31 @@
         <v>4400</v>
       </c>
       <c r="O8" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="P8" s="3">
         <v>4700</v>
       </c>
       <c r="Q8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4500</v>
       </c>
       <c r="T8" s="3">
         <v>4500</v>
       </c>
       <c r="U8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V8" s="3">
         <v>4400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4200</v>
-      </c>
-      <c r="W8" s="3">
-        <v>4000</v>
       </c>
       <c r="X8" s="3">
         <v>4000</v>
@@ -855,13 +859,13 @@
         <v>4000</v>
       </c>
       <c r="Z8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA8" s="3">
         <v>3800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3600</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>3700</v>
       </c>
       <c r="AC8" s="3">
         <v>3700</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1419,8 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>5</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,70 +1472,71 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>800</v>
       </c>
       <c r="X17" s="3">
         <v>800</v>
@@ -1518,10 +1545,10 @@
         <v>800</v>
       </c>
       <c r="Z17" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA17" s="3">
         <v>700</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>600</v>
       </c>
       <c r="AB17" s="3">
         <v>600</v>
@@ -1530,42 +1557,45 @@
         <v>600</v>
       </c>
       <c r="AD17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3600</v>
       </c>
       <c r="N18" s="3">
         <v>3600</v>
@@ -1574,22 +1604,22 @@
         <v>3600</v>
       </c>
       <c r="P18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3200</v>
       </c>
       <c r="V18" s="3">
         <v>3200</v>
@@ -1604,22 +1634,25 @@
         <v>3200</v>
       </c>
       <c r="Z18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3000</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>3100</v>
       </c>
       <c r="AC18" s="3">
         <v>3100</v>
       </c>
       <c r="AD18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1900</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
@@ -1665,79 +1699,82 @@
         <v>-1900</v>
       </c>
       <c r="G20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1600</v>
       </c>
       <c r="K20" s="3">
         <v>-1600</v>
       </c>
       <c r="L20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1800</v>
       </c>
       <c r="P20" s="3">
         <v>-1800</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1500</v>
       </c>
       <c r="S20" s="3">
         <v>-1500</v>
       </c>
       <c r="T20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1400</v>
       </c>
       <c r="V20" s="3">
         <v>-1400</v>
       </c>
       <c r="W20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1600</v>
       </c>
       <c r="AA20" s="3">
         <v>-1600</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,132 +1948,138 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1500</v>
       </c>
       <c r="T23" s="3">
         <v>1500</v>
       </c>
       <c r="U23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>1800</v>
       </c>
       <c r="Y23" s="3">
         <v>1800</v>
       </c>
       <c r="Z23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>400</v>
       </c>
       <c r="J24" s="3">
         <v>400</v>
       </c>
       <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -2045,43 +2091,46 @@
         <v>300</v>
       </c>
       <c r="S24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>300</v>
+      </c>
+      <c r="X24" s="3">
         <v>200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>500</v>
       </c>
       <c r="Y24" s="3">
         <v>500</v>
       </c>
       <c r="Z24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AA24" s="3">
         <v>300</v>
       </c>
       <c r="AB24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC24" s="3">
         <v>400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2100</v>
       </c>
       <c r="K26" s="3">
         <v>2100</v>
       </c>
       <c r="L26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1500</v>
       </c>
       <c r="V26" s="3">
         <v>1500</v>
       </c>
       <c r="W26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X26" s="3">
         <v>1400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>1300</v>
       </c>
       <c r="Y26" s="3">
         <v>1300</v>
       </c>
       <c r="Z26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2100</v>
       </c>
       <c r="K27" s="3">
         <v>2100</v>
       </c>
       <c r="L27" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="M27" s="3">
         <v>1500</v>
       </c>
       <c r="N27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1200</v>
       </c>
       <c r="T27" s="3">
         <v>1200</v>
       </c>
       <c r="U27" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="V27" s="3">
         <v>1500</v>
       </c>
       <c r="W27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X27" s="3">
         <v>1400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1300</v>
       </c>
       <c r="Y27" s="3">
         <v>1300</v>
       </c>
       <c r="Z27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2468,8 +2529,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2477,11 +2538,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
@@ -2489,12 +2550,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1900</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
@@ -2697,165 +2767,171 @@
         <v>1900</v>
       </c>
       <c r="G32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1600</v>
       </c>
       <c r="K32" s="3">
         <v>1600</v>
       </c>
       <c r="L32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1800</v>
       </c>
       <c r="P32" s="3">
         <v>1800</v>
       </c>
       <c r="Q32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1500</v>
       </c>
       <c r="S32" s="3">
         <v>1500</v>
       </c>
       <c r="T32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U32" s="3">
         <v>1600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1400</v>
       </c>
       <c r="V32" s="3">
         <v>1400</v>
       </c>
       <c r="W32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1600</v>
       </c>
       <c r="AA32" s="3">
         <v>1600</v>
       </c>
       <c r="AB32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2100</v>
       </c>
       <c r="K33" s="3">
         <v>2100</v>
       </c>
       <c r="L33" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="M33" s="3">
         <v>1500</v>
       </c>
       <c r="N33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1200</v>
       </c>
       <c r="T33" s="3">
         <v>1200</v>
       </c>
       <c r="U33" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="V33" s="3">
         <v>1500</v>
       </c>
       <c r="W33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2100</v>
       </c>
       <c r="K35" s="3">
         <v>2100</v>
       </c>
       <c r="L35" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="M35" s="3">
         <v>1500</v>
       </c>
       <c r="N35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1200</v>
       </c>
       <c r="T35" s="3">
         <v>1200</v>
       </c>
       <c r="U35" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="V35" s="3">
         <v>1500</v>
       </c>
       <c r="W35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3267,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>6100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>5700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>4900</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>24800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>29200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>9300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>5400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>4900</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>4300</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>2800</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>9500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>9800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>10100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>3700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>3500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>3500</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>2200</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2400</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>2600</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>623300</v>
+      </c>
+      <c r="E54" s="3">
         <v>596300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>601700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>585700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>590200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>532700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>520300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>491300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>473400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>450300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>436900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>431900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>420700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>429500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>422200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>424300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>409600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>411300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>396300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>384900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>389300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>381100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>374300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>360700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>363000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>352100</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>532100</v>
+      </c>
+      <c r="E66" s="3">
         <v>505500</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>497700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>501400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>445500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>434400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>407400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>390100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>368800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>357000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>352900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>342400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>352300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>346300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>349900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>335100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>338200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>327600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>324500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>313800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>319600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>311400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>305200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>291500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>295000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>285000</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
         <v>73300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>67400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>61600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>56200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>51800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>47000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>44600</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E76" s="3">
         <v>90800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>88000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>88800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>87200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>86000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>81500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>72400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>71800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>71100</v>
-      </c>
-      <c r="X76" s="3">
-        <v>69700</v>
       </c>
       <c r="Y76" s="3">
         <v>69700</v>
       </c>
       <c r="Z76" s="3">
+        <v>69700</v>
+      </c>
+      <c r="AA76" s="3">
         <v>69100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>69200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>68000</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2100</v>
       </c>
       <c r="K81" s="3">
         <v>2100</v>
       </c>
       <c r="L81" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="M81" s="3">
         <v>1500</v>
       </c>
       <c r="N81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1200</v>
       </c>
       <c r="T81" s="3">
         <v>1200</v>
       </c>
       <c r="U81" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="V81" s="3">
         <v>1500</v>
       </c>
       <c r="W81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MCBK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="92">
   <si>
     <t>MCBK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,233 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>6200</v>
       </c>
       <c r="E8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4400</v>
       </c>
       <c r="O8" s="3">
         <v>4400</v>
       </c>
       <c r="P8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R8" s="3">
         <v>4700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4800</v>
       </c>
       <c r="S8" s="3">
         <v>4700</v>
       </c>
       <c r="T8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="V8" s="3">
         <v>4500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4200</v>
-      </c>
-      <c r="X8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>4000</v>
       </c>
       <c r="Z8" s="3">
         <v>4000</v>
       </c>
       <c r="AA8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AC8" s="3">
         <v>3800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>3600</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>3700</v>
       </c>
       <c r="AE8" s="3">
         <v>3700</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,8 +979,14 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1074,14 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1113,10 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1204,14 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1299,14 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1394,14 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1422,11 +1468,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>5</v>
@@ -1443,8 +1489,14 @@
       <c r="AE15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,159 +1525,167 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>3800</v>
       </c>
       <c r="E17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1600</v>
       </c>
       <c r="T17" s="3">
         <v>1500</v>
       </c>
       <c r="U17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>800</v>
       </c>
       <c r="Z17" s="3">
         <v>800</v>
       </c>
       <c r="AA17" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC17" s="3">
         <v>700</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>600</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>600</v>
       </c>
       <c r="AD17" s="3">
         <v>600</v>
       </c>
       <c r="AE17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AG17" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>2400</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>5200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>4100</v>
       </c>
       <c r="L18" s="3">
         <v>4200</v>
       </c>
       <c r="M18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O18" s="3">
         <v>4000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3600</v>
       </c>
       <c r="P18" s="3">
         <v>3600</v>
       </c>
       <c r="Q18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S18" s="3">
         <v>3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>3000</v>
       </c>
       <c r="U18" s="3">
         <v>3100</v>
       </c>
       <c r="V18" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="W18" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="X18" s="3">
         <v>3200</v>
@@ -1637,22 +1697,28 @@
         <v>3200</v>
       </c>
       <c r="AA18" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="AB18" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="AC18" s="3">
         <v>3100</v>
       </c>
       <c r="AD18" s="3">
+        <v>3000</v>
+      </c>
+      <c r="AE18" s="3">
         <v>3100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AG18" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,16 +1750,18 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>-1900</v>
@@ -1702,79 +1770,85 @@
         <v>-1900</v>
       </c>
       <c r="H20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1000</v>
       </c>
       <c r="P20" s="3">
         <v>-1800</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1600</v>
       </c>
       <c r="Y20" s="3">
         <v>-1400</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AG20" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1862,8 +1936,14 @@
       <c r="AE21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,97 +2031,109 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1400</v>
       </c>
       <c r="J23" s="3">
         <v>2400</v>
       </c>
       <c r="K23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>2700</v>
       </c>
       <c r="P23" s="3">
         <v>1800</v>
       </c>
       <c r="Q23" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="R23" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="S23" s="3">
         <v>1700</v>
       </c>
       <c r="T23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>1300</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1600</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1700</v>
       </c>
       <c r="AE23" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,43 +2141,43 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>500</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -2094,43 +2186,49 @@
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>300</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>400</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>500</v>
       </c>
       <c r="AE24" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>500</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2316,204 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>600</v>
       </c>
       <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>700</v>
+      </c>
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>2200</v>
       </c>
       <c r="P26" s="3">
         <v>1500</v>
       </c>
       <c r="Q26" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="R26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S26" s="3">
         <v>1400</v>
       </c>
       <c r="T26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1200</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>1300</v>
       </c>
       <c r="AE26" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>700</v>
+      </c>
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>2200</v>
       </c>
       <c r="P27" s="3">
         <v>1500</v>
       </c>
       <c r="Q27" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="R27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S27" s="3">
         <v>1400</v>
       </c>
       <c r="T27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>1000</v>
       </c>
       <c r="AC27" s="3">
         <v>1100</v>
       </c>
       <c r="AD27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF27" s="3">
         <v>1300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AG27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2601,14 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2532,36 +2654,36 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2574,8 +2696,14 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2791,14 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,16 +2886,22 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>1900</v>
@@ -2770,168 +2910,180 @@
         <v>1900</v>
       </c>
       <c r="H32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
       </c>
       <c r="P32" s="3">
         <v>1800</v>
       </c>
       <c r="Q32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1600</v>
       </c>
       <c r="Y32" s="3">
         <v>1400</v>
       </c>
       <c r="Z32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>1500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>1300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AG32" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>700</v>
+      </c>
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>2200</v>
       </c>
       <c r="P33" s="3">
         <v>1500</v>
       </c>
       <c r="Q33" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="R33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S33" s="3">
         <v>1400</v>
       </c>
       <c r="T33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>1000</v>
       </c>
       <c r="AC33" s="3">
         <v>1100</v>
       </c>
       <c r="AD33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF33" s="3">
         <v>1300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AG33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3171,209 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>700</v>
+      </c>
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>2200</v>
       </c>
       <c r="P35" s="3">
         <v>1500</v>
       </c>
       <c r="Q35" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="R35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S35" s="3">
         <v>1400</v>
       </c>
       <c r="T35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>1000</v>
       </c>
       <c r="AC35" s="3">
         <v>1100</v>
       </c>
       <c r="AD35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF35" s="3">
         <v>1300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AG35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3405,10 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,186 +3440,200 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>6100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>5700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="3">
         <v>4900</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>24800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>29200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>9300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>5400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>4900</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>4300</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>2800</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3721,14 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3816,14 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3911,14 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3802,8 +4006,14 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,186 +4101,204 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>9500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>9800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>10100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>3700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>3500</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <v>3500</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>2000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>2200</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2400</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
         <v>2600</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4386,14 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4481,14 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4576,14 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4671,109 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>594700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>585400</v>
+      </c>
+      <c r="F54" s="3">
         <v>623300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>596300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>601700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>585700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>590200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>532700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>520300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>491300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>473400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>450300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>436900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>431900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>420700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>429500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>422200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>424300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>409600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>411300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>400000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>396300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>384900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>389300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>381100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>374300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>360700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>363000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>352100</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AG54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4805,10 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4840,105 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
         <v>100</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,8 +5026,14 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4847,8 +5121,14 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5216,14 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5311,14 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5406,14 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5501,14 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5596,14 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5691,109 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>504400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>495100</v>
+      </c>
+      <c r="F66" s="3">
         <v>532100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>505500</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>497700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>501400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>445500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>434400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>407400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>390100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>368800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>357000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>352900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>342400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>352300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>346300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>349900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>335100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>338200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>327600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>324500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>313800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>319600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>311400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>305200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>291500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>295000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>285000</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AG66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5825,10 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5916,14 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +6011,14 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +6106,14 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6201,109 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>73300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>67400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>61600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>56200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>51800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>47000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
         <v>44600</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6391,14 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6486,14 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6581,109 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F76" s="3">
         <v>91200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>90800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>89300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>88000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>88800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>87200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>86000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>83900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>83200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>81500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>79900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>78900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>78400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>77100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>75900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>74300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>74500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>73100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>72400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>71800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>71100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>69700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>69700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>69100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>69200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>68000</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6771,209 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>700</v>
+      </c>
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>2200</v>
       </c>
       <c r="P81" s="3">
         <v>1500</v>
       </c>
       <c r="Q81" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="R81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="S81" s="3">
         <v>1400</v>
       </c>
       <c r="T81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>1000</v>
       </c>
       <c r="AC81" s="3">
         <v>1100</v>
       </c>
       <c r="AD81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF81" s="3">
         <v>1300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AG81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +7005,10 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +7096,14 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +7191,14 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7286,14 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7381,14 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7476,14 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7571,14 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7666,14 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7705,10 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7796,14 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7891,14 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7986,14 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +8081,14 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +8120,10 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +8211,14 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8306,14 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8401,14 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8496,14 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8591,14 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8686,14 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8779,12 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="3">
         <v>0</v>
       </c>
     </row>
